--- a/Sample Data Model XL files/SampleModel_4Objects_Tables_MappingTables.xlsx
+++ b/Sample Data Model XL files/SampleModel_4Objects_Tables_MappingTables.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BUILD_User_Assistance\Sample Data Model XL files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="520" windowWidth="17900" windowHeight="8380"/>
+    <workbookView xWindow="645" yWindow="525" windowWidth="17895" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="My prototype Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -406,15 +411,45 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -444,7 +479,7 @@
     <tableColumn id="1" name="ID"/>
     <tableColumn id="4" name="Name"/>
     <tableColumn id="3" name="Status"/>
-    <tableColumn id="2" name="CreationDate" dataDxfId="0"/>
+    <tableColumn id="2" name="CreationDate" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,26 +872,26 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="19.625" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.125" customWidth="1"/>
     <col min="19" max="19" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" customWidth="1"/>
-    <col min="21" max="21" width="9.83203125" customWidth="1"/>
+    <col min="20" max="20" width="10.125" customWidth="1"/>
+    <col min="21" max="21" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -900,7 +935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>87</v>
       </c>
@@ -944,7 +979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>88</v>
       </c>
@@ -988,7 +1023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>89</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>90</v>
       </c>
@@ -1076,7 +1111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>91</v>
       </c>
@@ -1120,7 +1155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>33</v>
       </c>
@@ -1158,7 +1193,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>87</v>
       </c>
@@ -1196,7 +1231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>87</v>
       </c>
@@ -1234,7 +1269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>88</v>
       </c>
@@ -1272,7 +1307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>88</v>
       </c>
@@ -1310,7 +1345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>88</v>
       </c>
@@ -1348,7 +1383,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="7:21">
+    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>89</v>
       </c>
@@ -1386,7 +1421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="7:21">
+    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>89</v>
       </c>
@@ -1409,7 +1444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="7:21">
+    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>90</v>
       </c>
@@ -1432,7 +1467,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="7:21">
+    <row r="20" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>91</v>
       </c>
